--- a/Modelo - E2/Base de Datos/Parametros.xlsx
+++ b/Modelo - E2/Base de Datos/Parametros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hebersmac/Desktop/UC/2021-1/OPTIMIZACIÓN/PROYECTO/Entrega 2/E2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hebersmac/Desktop/UC/2021-1/OPTIMIZACIÓN/PROYECTO/REPOSITORIO/42069/Modelo - E2/Base de Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00175415-7DF8-3A49-B746-CE3BA6F6117F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC0C823-F3E8-A747-A73E-DF2551234D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros" sheetId="1" r:id="rId1"/>
@@ -123,6 +123,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -181,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -198,17 +199,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -445,7 +447,7 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -475,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -486,10 +488,10 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8"/>
+      <c r="C3" s="8">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="14">
       <c r="A4" s="4" t="s">
@@ -498,10 +500,10 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
-        <v>470</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="C4" s="8">
+        <v>256</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="28">
       <c r="A5" s="4" t="s">
@@ -510,110 +512,110 @@
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
-        <v>24</v>
-      </c>
-      <c r="E5" s="8"/>
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="28">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6">
-        <v>487.6</v>
+      <c r="C6" s="8">
+        <v>995.7</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="28">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
-        <v>484.6</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="C7" s="8">
+        <v>776.6</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="28">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
-        <v>206</v>
+      <c r="C8" s="8">
+        <v>275</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="28">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
-        <v>748.8</v>
+      <c r="C9" s="8">
+        <v>945.8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>188521</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -627,81 +629,81 @@
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="42">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="42">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>1</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="42">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
         <v>3</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="13">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="E20" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="16">
-      <c r="E22" s="15"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="13">
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="16">
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" ht="13">
       <c r="E25" s="7"/>
